--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_scotia\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D162C9D8-F44E-4A48-B10A-E9A0E0A5697D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12EF7B-0082-4AEA-B065-349B725DABE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="815">
   <si>
     <t>rowid</t>
   </si>
@@ -2482,6 +2482,9 @@
   </si>
   <si>
     <t>CB001/Hold for Investment - Australia/BP_CML</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -4091,9 +4094,9 @@
   </sheetPr>
   <dimension ref="A1:EN3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4214,6 +4217,9 @@
       <c r="AC1" s="15" t="s">
         <v>648</v>
       </c>
+      <c r="AD1" s="15" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="2" spans="1:144" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
@@ -4303,6 +4309,9 @@
       <c r="AC2" t="s">
         <v>655</v>
       </c>
+      <c r="AD2">
+        <v>30</v>
+      </c>
       <c r="DV2" s="66" t="s">
         <v>656</v>
       </c>
@@ -4448,6 +4457,9 @@
       </c>
       <c r="AC3" t="s">
         <v>655</v>
+      </c>
+      <c r="AD3">
+        <v>30</v>
       </c>
       <c r="DV3" s="66" t="s">
         <v>656</v>
@@ -5269,8 +5281,8 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12EF7B-0082-4AEA-B065-349B725DABE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73541A20-6919-4339-93B1-F6BE7F3E790B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="815">
   <si>
     <t>rowid</t>
   </si>
@@ -3151,8 +3151,8 @@
   <dimension ref="A1:CW25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3388,7 +3388,9 @@
       <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5"/>
+      <c r="AW1" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
@@ -3587,6 +3589,9 @@
       <c r="AV2" s="55" t="s">
         <v>86</v>
       </c>
+      <c r="AW2" s="55" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="25" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U25" s="55" t="s">
@@ -3605,10 +3610,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3623,7 +3628,7 @@
     <col min="9" max="11" width="28.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3657,8 +3662,11 @@
       <c r="K1" s="30" t="s">
         <v>612</v>
       </c>
+      <c r="L1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -3692,8 +3700,11 @@
       <c r="K2" s="66" t="s">
         <v>619</v>
       </c>
+      <c r="L2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>389</v>
       </c>
@@ -3727,8 +3738,11 @@
       <c r="K3" s="25" t="s">
         <v>623</v>
       </c>
+      <c r="L3" s="66" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>557</v>
       </c>
@@ -3762,6 +3776,12 @@
       <c r="K4" s="66" t="s">
         <v>619</v>
       </c>
+      <c r="L4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="66"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3775,9 +3795,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3791,7 +3813,7 @@
     <col min="9" max="11" width="28.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3825,8 +3847,11 @@
       <c r="K1" s="30" t="s">
         <v>612</v>
       </c>
+      <c r="L1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -3860,8 +3885,11 @@
       <c r="K2" s="66" t="s">
         <v>619</v>
       </c>
+      <c r="L2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>389</v>
       </c>
@@ -3894,6 +3922,9 @@
       </c>
       <c r="K3" s="25" t="s">
         <v>619</v>
+      </c>
+      <c r="L3" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3910,8 +3941,8 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,6 +4037,9 @@
       <c r="V1" s="28" t="s">
         <v>553</v>
       </c>
+      <c r="W1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2" spans="1:24" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -4074,7 +4108,9 @@
       <c r="V2" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="W2" s="55"/>
+      <c r="W2" t="s">
+        <v>262</v>
+      </c>
       <c r="X2" s="55"/>
     </row>
   </sheetData>
@@ -4094,9 +4130,9 @@
   </sheetPr>
   <dimension ref="A1:EN3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE1" sqref="AE1:AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4220,6 +4256,9 @@
       <c r="AD1" s="15" t="s">
         <v>814</v>
       </c>
+      <c r="AE1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2" spans="1:144" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
@@ -4312,6 +4351,9 @@
       <c r="AD2">
         <v>30</v>
       </c>
+      <c r="AE2" t="s">
+        <v>262</v>
+      </c>
       <c r="DV2" s="66" t="s">
         <v>656</v>
       </c>
@@ -4460,6 +4502,9 @@
       </c>
       <c r="AD3">
         <v>30</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>262</v>
       </c>
       <c r="DV3" s="66" t="s">
         <v>656</v>
@@ -4487,8 +4532,8 @@
   <dimension ref="A1:DO2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA1" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4672,6 +4717,9 @@
       <c r="Z1" s="71" t="s">
         <v>672</v>
       </c>
+      <c r="AA1" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="AW1" s="31"/>
       <c r="AX1" s="31"/>
       <c r="AY1" s="31"/>
@@ -4804,6 +4852,9 @@
       <c r="Z2" t="s">
         <v>679</v>
       </c>
+      <c r="AA2" t="s">
+        <v>262</v>
+      </c>
       <c r="CW2" s="66" t="s">
         <v>680</v>
       </c>
@@ -4877,10 +4928,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4908,7 +4959,7 @@
     <col min="21" max="21" width="21.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -4972,8 +5023,11 @@
       <c r="U1" s="45" t="s">
         <v>696</v>
       </c>
+      <c r="V1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -5033,6 +5087,9 @@
       </c>
       <c r="U2" s="66">
         <v>0.5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5047,10 +5104,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5068,7 +5125,7 @@
     <col min="22" max="31" width="32.140625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5162,8 +5219,11 @@
       <c r="AE1" s="74" t="s">
         <v>731</v>
       </c>
+      <c r="AI1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -5265,6 +5325,9 @@
       </c>
       <c r="AH2" s="1" t="s">
         <v>744</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5279,10 +5342,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5319,7 +5382,7 @@
     <col min="35" max="35" width="11.7109375" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5425,8 +5488,11 @@
       <c r="AI1" s="48" t="s">
         <v>766</v>
       </c>
+      <c r="AJ1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>48</v>
       </c>
@@ -5528,6 +5594,9 @@
       </c>
       <c r="AI2" s="66" t="s">
         <v>654</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5542,10 +5611,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5594,7 +5663,7 @@
     <col min="43" max="43" width="14.7109375" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -5727,8 +5796,11 @@
       <c r="AR1" s="53" t="s">
         <v>553</v>
       </c>
+      <c r="AS1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>48</v>
       </c>
@@ -5861,8 +5933,11 @@
       <c r="AR2" s="55" t="s">
         <v>574</v>
       </c>
+      <c r="AS2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AP5" s="65"/>
     </row>
   </sheetData>
@@ -5879,8 +5954,8 @@
   </sheetPr>
   <dimension ref="A1:DF2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DE1" sqref="DE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6641,8 +6716,8 @@
   <dimension ref="A1:GJ6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <pane xSplit="2" topLeftCell="CR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CV1" sqref="CV1:CV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7049,6 +7124,9 @@
       <c r="CU1" s="53" t="s">
         <v>360</v>
       </c>
+      <c r="CV1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="2" spans="1:192" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
@@ -7338,6 +7416,9 @@
       </c>
       <c r="CU2" t="s">
         <v>408</v>
+      </c>
+      <c r="CV2" s="66" t="s">
+        <v>262</v>
       </c>
       <c r="EG2" s="66" t="s">
         <v>409</v>
@@ -7463,10 +7544,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA1:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7495,7 +7576,7 @@
     <col min="26" max="26" width="31.140625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7574,8 +7655,11 @@
       <c r="Z1" s="15" t="s">
         <v>438</v>
       </c>
+      <c r="AA1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -7654,8 +7738,11 @@
       <c r="Z2" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="AA2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -7734,8 +7821,11 @@
       <c r="Z3" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="AA3" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -7814,8 +7904,11 @@
       <c r="Z4" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="AA4" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -7894,8 +7987,11 @@
       <c r="Z5" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="AA5" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>451</v>
       </c>
@@ -7973,6 +8069,9 @@
       </c>
       <c r="Z6" s="66" t="s">
         <v>444</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +8086,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8042,7 +8141,7 @@
     <col min="46" max="46" width="20.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -8181,8 +8280,11 @@
       <c r="AT1" s="28" t="s">
         <v>358</v>
       </c>
+      <c r="AU1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -8317,6 +8419,9 @@
       </c>
       <c r="AT2" s="66" t="s">
         <v>378</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8331,10 +8436,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1:AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8379,7 +8484,7 @@
     <col min="48" max="48" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8524,8 +8629,11 @@
       <c r="AV1" s="69" t="s">
         <v>553</v>
       </c>
+      <c r="AW1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -8669,6 +8777,9 @@
       </c>
       <c r="AV2" s="55" t="s">
         <v>574</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8686,11 +8797,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8714,7 +8825,7 @@
     <col min="18" max="20" width="24.28515625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8778,8 +8889,11 @@
       <c r="U1" s="68" t="s">
         <v>589</v>
       </c>
+      <c r="V1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -8842,6 +8956,9 @@
       </c>
       <c r="U2" s="1" t="s">
         <v>497</v>
+      </c>
+      <c r="V2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8859,10 +8976,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8877,7 +8994,7 @@
     <col min="8" max="8" width="27.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8902,8 +9019,11 @@
       <c r="H1" s="30" t="s">
         <v>598</v>
       </c>
+      <c r="I1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -8928,8 +9048,11 @@
       <c r="H2" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -8954,8 +9077,11 @@
       <c r="H3" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I3" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -8980,8 +9106,11 @@
       <c r="H4" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I4" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -9006,8 +9135,11 @@
       <c r="H5" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I5" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D10" s="25"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -9025,9 +9157,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9041,7 +9175,7 @@
     <col min="8" max="8" width="27.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -9066,8 +9200,11 @@
       <c r="H1" s="30" t="s">
         <v>598</v>
       </c>
+      <c r="I1" s="15" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -9092,8 +9229,11 @@
       <c r="H2" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I2" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -9118,8 +9258,11 @@
       <c r="H3" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I3" s="66" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -9144,8 +9287,11 @@
       <c r="H4" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I4" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -9170,13 +9316,16 @@
       <c r="H5" s="66" t="s">
         <v>444</v>
       </c>
+      <c r="I5" s="66" t="s">
+        <v>262</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D12" s="25"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>

--- a/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
+++ b/DataSet/LoanIQ_DataSet/EVG_PTYLIQ06_BilateralDealwithMultipleRiskTypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\LoanIQ_DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u722178\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73541A20-6919-4339-93B1-F6BE7F3E790B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12EF7B-0082-4AEA-B065-349B725DABE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12885" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="815">
   <si>
     <t>rowid</t>
   </si>
@@ -3151,8 +3151,8 @@
   <dimension ref="A1:CW25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW2" sqref="AW2"/>
+      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3388,9 +3388,7 @@
       <c r="AV1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5"/>
@@ -3589,9 +3587,6 @@
       <c r="AV2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="55" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="25" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U25" s="55" t="s">
@@ -3610,10 +3605,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3628,7 +3623,7 @@
     <col min="9" max="11" width="28.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3662,11 +3657,8 @@
       <c r="K1" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -3700,11 +3692,8 @@
       <c r="K2" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="L2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>389</v>
       </c>
@@ -3738,11 +3727,8 @@
       <c r="K3" s="25" t="s">
         <v>623</v>
       </c>
-      <c r="L3" s="66" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>557</v>
       </c>
@@ -3776,12 +3762,6 @@
       <c r="K4" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="L4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L5" s="66"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -3795,11 +3775,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3813,7 +3791,7 @@
     <col min="9" max="11" width="28.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -3847,11 +3825,8 @@
       <c r="K1" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -3885,11 +3860,8 @@
       <c r="K2" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="L2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>389</v>
       </c>
@@ -3922,9 +3894,6 @@
       </c>
       <c r="K3" s="25" t="s">
         <v>619</v>
-      </c>
-      <c r="L3" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3941,8 +3910,8 @@
   </sheetPr>
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W2"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,9 +4006,6 @@
       <c r="V1" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="2" spans="1:24" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -4108,9 +4074,7 @@
       <c r="V2" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="W2" t="s">
-        <v>262</v>
-      </c>
+      <c r="W2" s="55"/>
       <c r="X2" s="55"/>
     </row>
   </sheetData>
@@ -4130,9 +4094,9 @@
   </sheetPr>
   <dimension ref="A1:EN3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1:AE2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4256,9 +4220,6 @@
       <c r="AD1" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="AE1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="2" spans="1:144" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
@@ -4351,9 +4312,6 @@
       <c r="AD2">
         <v>30</v>
       </c>
-      <c r="AE2" t="s">
-        <v>262</v>
-      </c>
       <c r="DV2" s="66" t="s">
         <v>656</v>
       </c>
@@ -4502,9 +4460,6 @@
       </c>
       <c r="AD3">
         <v>30</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>262</v>
       </c>
       <c r="DV3" s="66" t="s">
         <v>656</v>
@@ -4532,8 +4487,8 @@
   <dimension ref="A1:DO2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA1" sqref="AA1:AA2"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4717,9 +4672,6 @@
       <c r="Z1" s="71" t="s">
         <v>672</v>
       </c>
-      <c r="AA1" s="15" t="s">
-        <v>192</v>
-      </c>
       <c r="AW1" s="31"/>
       <c r="AX1" s="31"/>
       <c r="AY1" s="31"/>
@@ -4852,9 +4804,6 @@
       <c r="Z2" t="s">
         <v>679</v>
       </c>
-      <c r="AA2" t="s">
-        <v>262</v>
-      </c>
       <c r="CW2" s="66" t="s">
         <v>680</v>
       </c>
@@ -4928,10 +4877,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4959,7 +4908,7 @@
     <col min="21" max="21" width="21.42578125" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5023,11 +4972,8 @@
       <c r="U1" s="45" t="s">
         <v>696</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -5087,9 +5033,6 @@
       </c>
       <c r="U2" s="66">
         <v>0.5</v>
-      </c>
-      <c r="V2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5104,10 +5047,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1:AI2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5125,7 +5068,7 @@
     <col min="22" max="31" width="32.140625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5219,11 +5162,8 @@
       <c r="AE1" s="74" t="s">
         <v>731</v>
       </c>
-      <c r="AI1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -5325,9 +5265,6 @@
       </c>
       <c r="AH2" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5342,10 +5279,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ2"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5382,7 +5319,7 @@
     <col min="35" max="35" width="11.7109375" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -5488,11 +5425,8 @@
       <c r="AI1" s="48" t="s">
         <v>766</v>
       </c>
-      <c r="AJ1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="49" t="s">
         <v>48</v>
       </c>
@@ -5594,9 +5528,6 @@
       </c>
       <c r="AI2" s="66" t="s">
         <v>654</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5611,10 +5542,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView topLeftCell="AG1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5663,7 +5594,7 @@
     <col min="43" max="43" width="14.7109375" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -5796,11 +5727,8 @@
       <c r="AR1" s="53" t="s">
         <v>553</v>
       </c>
-      <c r="AS1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="55" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>48</v>
       </c>
@@ -5933,11 +5861,8 @@
       <c r="AR2" s="55" t="s">
         <v>574</v>
       </c>
-      <c r="AS2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AP5" s="65"/>
     </row>
   </sheetData>
@@ -5954,8 +5879,8 @@
   </sheetPr>
   <dimension ref="A1:DF2"/>
   <sheetViews>
-    <sheetView topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DE1" sqref="DE1"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6716,8 +6641,8 @@
   <dimension ref="A1:GJ6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="CR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CV1" sqref="CV1:CV2"/>
+      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,9 +7049,6 @@
       <c r="CU1" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="CV1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
     <row r="2" spans="1:192" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
@@ -7416,9 +7338,6 @@
       </c>
       <c r="CU2" t="s">
         <v>408</v>
-      </c>
-      <c r="CV2" s="66" t="s">
-        <v>262</v>
       </c>
       <c r="EG2" s="66" t="s">
         <v>409</v>
@@ -7544,10 +7463,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA1:AA2"/>
+    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7576,7 +7495,7 @@
     <col min="26" max="26" width="31.140625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="27" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -7655,11 +7574,8 @@
       <c r="Z1" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="AA1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -7738,11 +7654,8 @@
       <c r="Z2" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="AA2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -7821,11 +7734,8 @@
       <c r="Z3" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="AA3" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -7904,11 +7814,8 @@
       <c r="Z4" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="AA4" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -7987,11 +7894,8 @@
       <c r="Z5" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="AA5" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="66" t="s">
         <v>451</v>
       </c>
@@ -8069,9 +7973,6 @@
       </c>
       <c r="Z6" s="66" t="s">
         <v>444</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8086,13 +7987,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU1" sqref="AU1:AU2"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8141,7 +8042,7 @@
     <col min="46" max="46" width="20.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -8280,11 +8181,8 @@
       <c r="AT1" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="AU1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:47" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -8419,9 +8317,6 @@
       </c>
       <c r="AT2" s="66" t="s">
         <v>378</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8436,10 +8331,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AW2"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8484,7 +8379,7 @@
     <col min="48" max="48" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8629,11 +8524,8 @@
       <c r="AV1" s="69" t="s">
         <v>553</v>
       </c>
-      <c r="AW1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>48</v>
       </c>
@@ -8777,9 +8669,6 @@
       </c>
       <c r="AV2" s="55" t="s">
         <v>574</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8797,11 +8686,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1:V2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8825,7 +8714,7 @@
     <col min="18" max="20" width="24.28515625" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8889,11 +8778,8 @@
       <c r="U1" s="68" t="s">
         <v>589</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>48</v>
       </c>
@@ -8956,9 +8842,6 @@
       </c>
       <c r="U2" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="V2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8976,10 +8859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8994,7 +8877,7 @@
     <col min="8" max="8" width="27.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -9019,11 +8902,8 @@
       <c r="H1" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -9048,11 +8928,8 @@
       <c r="H2" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -9077,11 +8954,8 @@
       <c r="H3" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I3" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -9106,11 +8980,8 @@
       <c r="H4" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I4" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -9135,11 +9006,8 @@
       <c r="H5" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I5" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D10" s="25"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -9157,11 +9025,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9175,7 +9041,7 @@
     <col min="8" max="8" width="27.85546875" style="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="30" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -9200,11 +9066,8 @@
       <c r="H1" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
         <v>439</v>
       </c>
@@ -9229,11 +9092,8 @@
       <c r="H2" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I2" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" t="s">
         <v>445</v>
       </c>
@@ -9258,11 +9118,8 @@
       <c r="H3" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I3" s="66" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>447</v>
       </c>
@@ -9287,11 +9144,8 @@
       <c r="H4" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I4" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>449</v>
       </c>
@@ -9316,16 +9170,13 @@
       <c r="H5" s="66" t="s">
         <v>444</v>
       </c>
-      <c r="I5" s="66" t="s">
-        <v>262</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="66" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="25"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
